--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业实收资本.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业实收资本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,590 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3147.3298</v>
+        <v>15211.4089</v>
       </c>
       <c r="C2" t="n">
-        <v>1259.2585</v>
+        <v>2207.5073</v>
       </c>
       <c r="D2" t="n">
-        <v>26.7649</v>
+        <v>80.23269999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3655</v>
+        <v>30.5565</v>
       </c>
       <c r="F2" t="n">
-        <v>3219.839</v>
+        <v>15391.4416</v>
       </c>
       <c r="G2" t="n">
-        <v>45.7444</v>
+        <v>99.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4947</v>
+        <v>19.9681</v>
       </c>
       <c r="I2" t="n">
-        <v>944.646</v>
+        <v>627.3441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4437.4143</v>
+        <v>17822.48658</v>
       </c>
       <c r="C3" t="n">
-        <v>1585.8301</v>
+        <v>2561.28772</v>
       </c>
       <c r="D3" t="n">
-        <v>28.5861</v>
+        <v>99.21221</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5443</v>
+        <v>37.2166</v>
       </c>
       <c r="F3" t="n">
-        <v>4518.6143</v>
+        <v>18020.70962</v>
       </c>
       <c r="G3" t="n">
-        <v>52.6139</v>
+        <v>99.01083</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2843</v>
+        <v>28.63302</v>
       </c>
       <c r="I3" t="n">
-        <v>965.7091</v>
+        <v>674.67816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5757.5609</v>
+        <v>21612.1448</v>
       </c>
       <c r="C4" t="n">
-        <v>1783.8846</v>
+        <v>2827.02686</v>
       </c>
       <c r="D4" t="n">
-        <v>34.638</v>
+        <v>82.49975000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.4899</v>
+        <v>40.93267</v>
       </c>
       <c r="F4" t="n">
-        <v>5855.5713</v>
+        <v>21800.20731</v>
       </c>
       <c r="G4" t="n">
-        <v>63.3724</v>
+        <v>105.56276</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8093</v>
+        <v>24.32692</v>
       </c>
       <c r="I4" t="n">
-        <v>1096.3904</v>
+        <v>700.1089899999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6438.4557</v>
+        <v>27030.87317</v>
       </c>
       <c r="C5" t="n">
-        <v>1741.5883</v>
+        <v>3061.30788</v>
       </c>
       <c r="D5" t="n">
-        <v>41.9263</v>
+        <v>85.66031</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4125</v>
+        <v>35.65545</v>
       </c>
       <c r="F5" t="n">
-        <v>6540.7983</v>
+        <v>27243.46667</v>
       </c>
       <c r="G5" t="n">
-        <v>60.4163</v>
+        <v>126.93319</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2617</v>
+        <v>29.98253</v>
       </c>
       <c r="I5" t="n">
-        <v>995.9580999999999</v>
+        <v>560.98479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8039.89466</v>
+        <v>28259.92248</v>
       </c>
       <c r="C6" t="n">
-        <v>1974.58213</v>
+        <v>3225.48085</v>
       </c>
       <c r="D6" t="n">
-        <v>63.85456</v>
+        <v>81.76940999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>10.99106</v>
+        <v>36.0168</v>
       </c>
       <c r="F6" t="n">
-        <v>8171.3763</v>
+        <v>28500.33748</v>
       </c>
       <c r="G6" t="n">
-        <v>67.62708000000001</v>
+        <v>158.64559</v>
       </c>
       <c r="H6" t="n">
-        <v>9.040179999999999</v>
+        <v>62.81178</v>
       </c>
       <c r="I6" t="n">
-        <v>755.13873</v>
+        <v>543.53401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8899.79256</v>
+        <v>32320.18379</v>
       </c>
       <c r="C7" t="n">
-        <v>1984.81963</v>
+        <v>3696.21511</v>
       </c>
       <c r="D7" t="n">
-        <v>63.769</v>
+        <v>122.05375</v>
       </c>
       <c r="E7" t="n">
-        <v>15.30803</v>
+        <v>74.42469</v>
       </c>
       <c r="F7" t="n">
-        <v>9032.55127</v>
+        <v>32602.50477</v>
       </c>
       <c r="G7" t="n">
-        <v>68.98971</v>
+        <v>160.26723</v>
       </c>
       <c r="H7" t="n">
-        <v>10.50823</v>
+        <v>61.55649</v>
       </c>
       <c r="I7" t="n">
-        <v>690.74288</v>
+        <v>553.12692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9832.164720000001</v>
+        <v>36135.86019</v>
       </c>
       <c r="C8" t="n">
-        <v>2061.76471</v>
+        <v>4329.60069</v>
       </c>
       <c r="D8" t="n">
-        <v>75.25075</v>
+        <v>128.09191</v>
       </c>
       <c r="E8" t="n">
-        <v>18.91991</v>
+        <v>79.86313</v>
       </c>
       <c r="F8" t="n">
-        <v>9982.09647</v>
+        <v>36441.88844</v>
       </c>
       <c r="G8" t="n">
-        <v>74.681</v>
+        <v>177.93634</v>
       </c>
       <c r="H8" t="n">
-        <v>14.67035</v>
+        <v>63.27853</v>
       </c>
       <c r="I8" t="n">
-        <v>675.00865</v>
+        <v>516.7264699999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11721.2846</v>
+        <v>38785.48808</v>
       </c>
       <c r="C9" t="n">
-        <v>2020.0507</v>
+        <v>4413.14948</v>
       </c>
       <c r="D9" t="n">
-        <v>76.86601</v>
+        <v>133.62809</v>
       </c>
       <c r="E9" t="n">
-        <v>24.0443</v>
+        <v>78.03100000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>11887.22257</v>
+        <v>39083.17293</v>
       </c>
       <c r="G9" t="n">
-        <v>89.07196</v>
+        <v>164.05676</v>
       </c>
       <c r="H9" t="n">
-        <v>21.37012</v>
+        <v>70.96476</v>
       </c>
       <c r="I9" t="n">
-        <v>638.0751299999999</v>
+        <v>474.41967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13106.8115</v>
+        <v>40318.01751</v>
       </c>
       <c r="C10" t="n">
-        <v>2178.26729</v>
+        <v>4844.05643</v>
       </c>
       <c r="D10" t="n">
-        <v>83.86472000000001</v>
+        <v>127.80636</v>
       </c>
       <c r="E10" t="n">
-        <v>27.24449</v>
+        <v>80.22284000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>13284.28765</v>
+        <v>40614.86851</v>
       </c>
       <c r="G10" t="n">
-        <v>93.61143</v>
+        <v>169.04464</v>
       </c>
       <c r="H10" t="n">
-        <v>19.47115</v>
+        <v>67.99120000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>635.47962</v>
+        <v>429.27334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15211.4089</v>
+        <v>42647.40055</v>
       </c>
       <c r="C11" t="n">
-        <v>2207.5073</v>
+        <v>5383.9054</v>
       </c>
       <c r="D11" t="n">
-        <v>80.23269999999999</v>
+        <v>154.23949</v>
       </c>
       <c r="E11" t="n">
-        <v>30.5565</v>
+        <v>78.54148000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>15391.4416</v>
+        <v>43000.34114</v>
       </c>
       <c r="G11" t="n">
-        <v>99.8</v>
+        <v>198.7011</v>
       </c>
       <c r="H11" t="n">
-        <v>19.9681</v>
+        <v>74.04818</v>
       </c>
       <c r="I11" t="n">
-        <v>627.3441</v>
+        <v>399.21088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17822.48658</v>
+        <v>44228.20594</v>
       </c>
       <c r="C12" t="n">
-        <v>2561.28772</v>
+        <v>5660.26095</v>
       </c>
       <c r="D12" t="n">
-        <v>99.21221</v>
+        <v>162.75375</v>
       </c>
       <c r="E12" t="n">
-        <v>37.2166</v>
+        <v>88.87744000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>18020.70962</v>
+        <v>44592.58763</v>
       </c>
       <c r="G12" t="n">
-        <v>99.01083</v>
+        <v>201.62794</v>
       </c>
       <c r="H12" t="n">
-        <v>28.63302</v>
+        <v>75.93836</v>
       </c>
       <c r="I12" t="n">
-        <v>674.67816</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21612.1448</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2827.02686</v>
-      </c>
-      <c r="D13" t="n">
-        <v>82.49975000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>40.93267</v>
-      </c>
-      <c r="F13" t="n">
-        <v>21800.20731</v>
-      </c>
-      <c r="G13" t="n">
-        <v>105.56276</v>
-      </c>
-      <c r="H13" t="n">
-        <v>24.32692</v>
-      </c>
-      <c r="I13" t="n">
-        <v>700.1089899999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>27030.87317</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3061.30788</v>
-      </c>
-      <c r="D14" t="n">
-        <v>85.66031</v>
-      </c>
-      <c r="E14" t="n">
-        <v>35.65545</v>
-      </c>
-      <c r="F14" t="n">
-        <v>27243.46667</v>
-      </c>
-      <c r="G14" t="n">
-        <v>126.93319</v>
-      </c>
-      <c r="H14" t="n">
-        <v>29.98253</v>
-      </c>
-      <c r="I14" t="n">
-        <v>560.98479</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>28259.92248</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3225.48085</v>
-      </c>
-      <c r="D15" t="n">
-        <v>81.76940999999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>36.0168</v>
-      </c>
-      <c r="F15" t="n">
-        <v>28500.33748</v>
-      </c>
-      <c r="G15" t="n">
-        <v>158.64559</v>
-      </c>
-      <c r="H15" t="n">
-        <v>62.81178</v>
-      </c>
-      <c r="I15" t="n">
-        <v>543.53401</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>32320.18379</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3696.21511</v>
-      </c>
-      <c r="D16" t="n">
-        <v>122.05375</v>
-      </c>
-      <c r="E16" t="n">
-        <v>74.42469</v>
-      </c>
-      <c r="F16" t="n">
-        <v>32602.50477</v>
-      </c>
-      <c r="G16" t="n">
-        <v>160.26723</v>
-      </c>
-      <c r="H16" t="n">
-        <v>61.55649</v>
-      </c>
-      <c r="I16" t="n">
-        <v>553.12692</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>36135.86019</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4329.60069</v>
-      </c>
-      <c r="D17" t="n">
-        <v>128.09191</v>
-      </c>
-      <c r="E17" t="n">
-        <v>79.86313</v>
-      </c>
-      <c r="F17" t="n">
-        <v>36441.88844</v>
-      </c>
-      <c r="G17" t="n">
-        <v>177.93634</v>
-      </c>
-      <c r="H17" t="n">
-        <v>63.27853</v>
-      </c>
-      <c r="I17" t="n">
-        <v>516.7264699999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>38785.48808</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4413.14948</v>
-      </c>
-      <c r="D18" t="n">
-        <v>133.62809</v>
-      </c>
-      <c r="E18" t="n">
-        <v>78.03100000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>39083.17293</v>
-      </c>
-      <c r="G18" t="n">
-        <v>164.05676</v>
-      </c>
-      <c r="H18" t="n">
-        <v>70.96476</v>
-      </c>
-      <c r="I18" t="n">
-        <v>474.41967</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>40318.01751</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4844.05643</v>
-      </c>
-      <c r="D19" t="n">
-        <v>127.80636</v>
-      </c>
-      <c r="E19" t="n">
-        <v>80.22284000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>40614.86851</v>
-      </c>
-      <c r="G19" t="n">
-        <v>169.04464</v>
-      </c>
-      <c r="H19" t="n">
-        <v>67.99120000000001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>429.27334</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>42647.40055</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5383.9054</v>
-      </c>
-      <c r="D20" t="n">
-        <v>154.23949</v>
-      </c>
-      <c r="E20" t="n">
-        <v>78.54148000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>43000.34114</v>
-      </c>
-      <c r="G20" t="n">
-        <v>198.7011</v>
-      </c>
-      <c r="H20" t="n">
-        <v>74.04818</v>
-      </c>
-      <c r="I20" t="n">
-        <v>399.21088</v>
+        <v>356.09727</v>
       </c>
     </row>
   </sheetData>
